--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC2AD9-153D-4246-932C-B06CBE30FCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
-    <sheet name="Weapons" sheetId="2" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="Weapon" sheetId="2" r:id="rId2"/>
+    <sheet name="Note" sheetId="3" r:id="rId3"/>
+    <sheet name="Work" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,13 +204,77 @@
   </si>
   <si>
     <t>Notes/Cloud_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/08_글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담금질된 글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponImages/09_담금질된 글라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목걸이 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파이어 채광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leastUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산 탐험하러가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거미줄 제거하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤 퇴치하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채석장에서 채석하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산에서 채광하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyCool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,6 +326,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -307,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +409,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -727,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,6 +1002,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>750000</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3750000</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -907,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,11 +1107,321 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3">
     <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14810B1-7F4F-43DC-AC90-D91D9F78ED6D}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>15000</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>50000</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>50000</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100000</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>30000</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1500000</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>400000</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC2AD9-153D-4246-932C-B06CBE30FCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE5731-C49C-4C7A-89FE-6B0A56341B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
     <sheet name="Weapon" sheetId="2" r:id="rId2"/>
-    <sheet name="Note" sheetId="3" r:id="rId3"/>
+    <sheet name="Boss" sheetId="3" r:id="rId3"/>
     <sheet name="Work" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,50 @@
   </si>
   <si>
     <t>Yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCleared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/01_광산탐험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/02_거미줄 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/03_스켈레톤 퇴치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/04_채석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/05_채광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/06_목걸이 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/07_포션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/08_사파이어 채광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkImages/09_보물상자 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +878,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1051,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,53 +1106,77 @@
     <col min="1" max="15" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3">
-    <sortCondition ref="C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3">
+    <sortCondition ref="D2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,7 +1189,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -1172,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1192,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1201,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1221,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -1230,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1250,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -1259,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1279,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1288,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1308,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -1317,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1337,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -1346,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1366,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -1375,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1395,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -1404,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>

--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE5731-C49C-4C7A-89FE-6B0A56341B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,26 +452,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,23 +487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,7 +662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -874,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1094,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1175,7 +1140,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3">
+  <sortState ref="D3">
     <sortCondition ref="D2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,11 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14810B1-7F4F-43DC-AC90-D91D9F78ED6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="I9">
         <v>20</v>

--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D3">
+  <sortState ref="D2">
     <sortCondition ref="D2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -9,15 +9,14 @@
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
     <sheet name="Weapon" sheetId="2" r:id="rId2"/>
-    <sheet name="Boss" sheetId="3" r:id="rId3"/>
-    <sheet name="Work" sheetId="4" r:id="rId4"/>
+    <sheet name="Work" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,26 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SongName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>So_Happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes/So_Happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes/Faded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담금질된 초보자의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,33 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BossName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 해골병사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJ 흑마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faded</t>
-  </si>
-  <si>
-    <t>Cloud_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes/Cloud_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WeaponImages/08_글라디우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,14 +219,6 @@
   </si>
   <si>
     <t>Yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCleared</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,11 +298,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -680,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -692,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -709,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -726,7 +667,7 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -743,7 +684,7 @@
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -760,7 +701,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>250</v>
@@ -777,7 +718,7 @@
         <v>1600</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300</v>
@@ -794,7 +735,7 @@
         <v>3200</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>350</v>
@@ -811,7 +752,7 @@
         <v>6400</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>400</v>
@@ -828,7 +769,7 @@
         <v>12800</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -876,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -896,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -916,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -936,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -956,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -976,10 +917,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -996,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1016,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1036,10 +977,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1060,101 +1001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="15" width="30.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="D2">
-    <sortCondition ref="D2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1182,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1196,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1225,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1254,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1283,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1312,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1341,10 +1191,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1370,10 +1220,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1399,10 +1249,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1428,10 +1278,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>1</v>

--- a/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
+++ b/DropTheBit_Hero/Assets/Scripts/Data/Data.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
